--- a/data/trans_orig/P70B_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{829A1A6E-27CD-40C3-92C0-823026CFAAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55F3CE95-B2AF-410F-B55B-E0130A5FA7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{600257BF-4002-45EE-ACC7-63DB9E2BF7D9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D339D280-6F3A-406C-9DC7-E8C46DFFCDD1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
   <si>
     <t>Población según como se adapta su horario laboral a sus compromisos sociales y familiares fuera del trabajo en 2023 (Tasa respuesta: 42,42%)</t>
   </si>
@@ -77,25 +77,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,94%</t>
+    <t>2,95%</t>
   </si>
   <si>
     <t>9,25%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
+    <t>38,37%</t>
   </si>
   <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
   </si>
   <si>
     <t>No muy bien</t>
@@ -104,415 +101,415 @@
     <t>8,57%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
   </si>
   <si>
     <t>8,2%</t>
   </si>
   <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>Bastante bien</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>Muy bien</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>Bastante bien</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>Muy bien</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
   </si>
   <si>
     <t>12,17%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
   </si>
   <si>
     <t>12,02%</t>
   </si>
   <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
   </si>
   <si>
     <t>61,23%</t>
   </si>
   <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
   </si>
   <si>
     <t>59,29%</t>
   </si>
   <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
   </si>
   <si>
     <t>60,36%</t>
   </si>
   <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
   </si>
   <si>
     <t>24,31%</t>
   </si>
   <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
   </si>
   <si>
     <t>25,81%</t>
   </si>
   <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
   </si>
   <si>
     <t>24,99%</t>
   </si>
   <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -927,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5FAF78-1CA9-4B00-A258-F102A86ECA2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D21DBD-A0D6-4AA3-93B9-8FC10F9338E5}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1069,10 +1066,10 @@
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -1081,19 +1078,19 @@
         <v>9072</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>12</v>
@@ -1102,13 +1099,13 @@
         <v>11497</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -1117,13 +1114,13 @@
         <v>7321</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -1132,19 +1129,19 @@
         <v>18818</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>94</v>
@@ -1153,13 +1150,13 @@
         <v>85403</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>78</v>
@@ -1168,13 +1165,13 @@
         <v>51631</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>172</v>
@@ -1183,19 +1180,19 @@
         <v>137033</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>35</v>
@@ -1204,13 +1201,13 @@
         <v>36491</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -1219,13 +1216,13 @@
         <v>22109</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -1234,13 +1231,13 @@
         <v>58600</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1255,13 +1252,13 @@
         <v>134198</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>122</v>
@@ -1270,13 +1267,13 @@
         <v>89326</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>264</v>
@@ -1285,18 +1282,18 @@
         <v>223523</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1308,13 +1305,13 @@
         <v>34327</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>28</v>
@@ -1323,13 +1320,13 @@
         <v>20700</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>61</v>
@@ -1338,19 +1335,19 @@
         <v>55028</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7">
         <v>155</v>
@@ -1359,13 +1356,13 @@
         <v>181628</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>165</v>
@@ -1374,13 +1371,13 @@
         <v>129572</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>320</v>
@@ -1389,19 +1386,19 @@
         <v>311200</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>676</v>
@@ -1410,13 +1407,13 @@
         <v>773669</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>773</v>
@@ -1425,13 +1422,13 @@
         <v>568711</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>1449</v>
@@ -1440,19 +1437,19 @@
         <v>1342380</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>227</v>
@@ -1461,13 +1458,13 @@
         <v>242856</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>295</v>
@@ -1476,13 +1473,13 @@
         <v>221136</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>522</v>
@@ -1491,13 +1488,13 @@
         <v>463992</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1512,13 +1509,13 @@
         <v>1232481</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>1261</v>
@@ -1527,13 +1524,13 @@
         <v>940119</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>2352</v>
@@ -1542,18 +1539,18 @@
         <v>2172600</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1565,13 +1562,13 @@
         <v>11872</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -1580,13 +1577,13 @@
         <v>12079</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -1595,19 +1592,19 @@
         <v>23952</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7">
         <v>20</v>
@@ -1616,13 +1613,13 @@
         <v>24581</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>55</v>
@@ -1631,13 +1628,13 @@
         <v>45916</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M15" s="7">
         <v>75</v>
@@ -1658,7 +1655,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>253</v>
@@ -1709,7 +1706,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>152</v>
@@ -1769,13 +1766,13 @@
         <v>463876</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>651</v>
@@ -1784,13 +1781,13 @@
         <v>472901</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>1086</v>
@@ -1799,13 +1796,13 @@
         <v>936777</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1825,10 +1822,10 @@
         <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -1837,13 +1834,13 @@
         <v>41045</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>91</v>
@@ -1852,19 +1849,19 @@
         <v>88051</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>187</v>
@@ -1873,13 +1870,13 @@
         <v>217706</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>232</v>
@@ -1888,13 +1885,13 @@
         <v>182810</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>419</v>
@@ -1903,19 +1900,19 @@
         <v>400516</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>1023</v>
@@ -1924,13 +1921,13 @@
         <v>1120902</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>1234</v>
@@ -1939,13 +1936,13 @@
         <v>890705</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>2257</v>
@@ -1954,19 +1951,19 @@
         <v>2011607</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>414</v>
@@ -1975,13 +1972,13 @@
         <v>444940</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>521</v>
@@ -1990,13 +1987,13 @@
         <v>387786</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>935</v>
@@ -2005,13 +2002,13 @@
         <v>832726</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,13 +2023,13 @@
         <v>1830554</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>2034</v>
@@ -2041,13 +2038,13 @@
         <v>1502346</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>3702</v>
@@ -2056,18 +2053,18 @@
         <v>3332900</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70B_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55F3CE95-B2AF-410F-B55B-E0130A5FA7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18AD6B44-0EF5-43C2-8356-EC0BFC4E9E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D339D280-6F3A-406C-9DC7-E8C46DFFCDD1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6BFB500D-219D-40DD-A427-50A9521003A4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -924,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D21DBD-A0D6-4AA3-93B9-8FC10F9338E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033F070E-E84B-4E84-81C6-7C782FB53464}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70B_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18AD6B44-0EF5-43C2-8356-EC0BFC4E9E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40B7BBF2-45C5-4ED9-B5C5-A4849C8F1BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6BFB500D-219D-40DD-A427-50A9521003A4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5C46BFF0-B6DE-4B68-AB29-ED17CC5BE4E5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
   <si>
     <t>Población según como se adapta su horario laboral a sus compromisos sociales y familiares fuera del trabajo en 2023 (Tasa respuesta: 42,42%)</t>
   </si>
@@ -77,22 +77,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,95%</t>
+    <t>2,94%</t>
   </si>
   <si>
     <t>9,25%</t>
   </si>
   <si>
-    <t>38,37%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
   </si>
   <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
   </si>
   <si>
     <t>No muy bien</t>
@@ -101,28 +104,28 @@
     <t>8,57%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
   </si>
   <si>
     <t>8,2%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
   </si>
   <si>
     <t>Bastante bien</t>
@@ -131,28 +134,28 @@
     <t>63,64%</t>
   </si>
   <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
   </si>
   <si>
     <t>57,8%</t>
   </si>
   <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
   </si>
   <si>
     <t>61,31%</t>
   </si>
   <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
   </si>
   <si>
     <t>Muy bien</t>
@@ -161,28 +164,28 @@
     <t>27,19%</t>
   </si>
   <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
   </si>
   <si>
     <t>24,75%</t>
   </si>
   <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
   </si>
   <si>
     <t>26,22%</t>
   </si>
   <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,322 +197,322 @@
     <t>2,79%</t>
   </si>
   <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
   </si>
   <si>
     <t>26,74%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -924,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033F070E-E84B-4E84-81C6-7C782FB53464}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CDDA21-24E9-487D-BC44-7BC9DC12BD7D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1066,10 +1069,10 @@
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -1078,19 +1081,19 @@
         <v>9072</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>12</v>
@@ -1099,13 +1102,13 @@
         <v>11497</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -1114,13 +1117,13 @@
         <v>7321</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -1129,19 +1132,19 @@
         <v>18818</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>94</v>
@@ -1150,13 +1153,13 @@
         <v>85403</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>78</v>
@@ -1165,13 +1168,13 @@
         <v>51631</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>172</v>
@@ -1180,19 +1183,19 @@
         <v>137033</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>35</v>
@@ -1201,13 +1204,13 @@
         <v>36491</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -1216,13 +1219,13 @@
         <v>22109</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -1231,13 +1234,13 @@
         <v>58600</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1252,13 +1255,13 @@
         <v>134198</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>122</v>
@@ -1267,13 +1270,13 @@
         <v>89326</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>264</v>
@@ -1282,18 +1285,18 @@
         <v>223523</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1305,13 +1308,13 @@
         <v>34327</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>28</v>
@@ -1320,13 +1323,13 @@
         <v>20700</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>61</v>
@@ -1335,19 +1338,19 @@
         <v>55028</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>155</v>
@@ -1356,13 +1359,13 @@
         <v>181628</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>165</v>
@@ -1371,13 +1374,13 @@
         <v>129572</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>320</v>
@@ -1386,19 +1389,19 @@
         <v>311200</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>676</v>
@@ -1407,13 +1410,13 @@
         <v>773669</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>773</v>
@@ -1422,13 +1425,13 @@
         <v>568711</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>1449</v>
@@ -1437,19 +1440,19 @@
         <v>1342380</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>227</v>
@@ -1458,13 +1461,13 @@
         <v>242856</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>295</v>
@@ -1473,13 +1476,13 @@
         <v>221136</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>522</v>
@@ -1488,13 +1491,13 @@
         <v>463992</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1509,13 +1512,13 @@
         <v>1232481</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>1261</v>
@@ -1524,13 +1527,13 @@
         <v>940119</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>2352</v>
@@ -1539,18 +1542,18 @@
         <v>2172600</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1562,13 +1565,13 @@
         <v>11872</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -1577,13 +1580,13 @@
         <v>12079</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -1592,19 +1595,19 @@
         <v>23952</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
         <v>20</v>
@@ -1613,13 +1616,13 @@
         <v>24581</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>55</v>
@@ -1628,13 +1631,13 @@
         <v>45916</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="M15" s="7">
         <v>75</v>
@@ -1655,7 +1658,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>253</v>
@@ -1706,7 +1709,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>152</v>
@@ -1766,13 +1769,13 @@
         <v>463876</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>651</v>
@@ -1781,13 +1784,13 @@
         <v>472901</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>1086</v>
@@ -1796,13 +1799,13 @@
         <v>936777</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1822,10 +1825,10 @@
         <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -1834,13 +1837,13 @@
         <v>41045</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>91</v>
@@ -1849,19 +1852,19 @@
         <v>88051</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>187</v>
@@ -1870,13 +1873,13 @@
         <v>217706</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>232</v>
@@ -1885,13 +1888,13 @@
         <v>182810</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>419</v>
@@ -1900,19 +1903,19 @@
         <v>400516</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>1023</v>
@@ -1921,13 +1924,13 @@
         <v>1120902</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>1234</v>
@@ -1936,13 +1939,13 @@
         <v>890705</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>2257</v>
@@ -1951,19 +1954,19 @@
         <v>2011607</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>414</v>
@@ -1972,13 +1975,13 @@
         <v>444940</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>521</v>
@@ -1987,13 +1990,13 @@
         <v>387786</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>935</v>
@@ -2002,13 +2005,13 @@
         <v>832726</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,13 +2026,13 @@
         <v>1830554</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>2034</v>
@@ -2038,13 +2041,13 @@
         <v>1502346</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>3702</v>
@@ -2053,18 +2056,18 @@
         <v>3332900</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70B_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40B7BBF2-45C5-4ED9-B5C5-A4849C8F1BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41121C13-62BF-4D5E-BA24-58460FB7DA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5C46BFF0-B6DE-4B68-AB29-ED17CC5BE4E5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{33E486F4-AFD0-4382-BC3F-9B3D17EE394A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
   <si>
     <t>Población según como se adapta su horario laboral a sus compromisos sociales y familiares fuera del trabajo en 2023 (Tasa respuesta: 42,42%)</t>
   </si>
@@ -71,121 +71,121 @@
     <t>Nada bien</t>
   </si>
   <si>
-    <t>0,6%</t>
+    <t>0,57%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
   </si>
   <si>
     <t>No muy bien</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
   </si>
   <si>
     <t>Bastante bien</t>
   </si>
   <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
   </si>
   <si>
     <t>Muy bien</t>
   </si>
   <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,325 +194,319 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>2,56%</t>
+    <t>2,55%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
   </si>
   <si>
     <t>7,43%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
   </si>
   <si>
     <t>52,98%</t>
   </si>
   <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -927,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CDDA21-24E9-487D-BC44-7BC9DC12BD7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BEBCB1-4216-453B-984A-192FFA273FAD}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1048,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>807</v>
+        <v>755</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1063,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>8265</v>
+        <v>6241</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1078,7 +1072,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>9072</v>
+        <v>6996</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1099,7 +1093,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="7">
-        <v>11497</v>
+        <v>12106</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1114,7 +1108,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>7321</v>
+        <v>6666</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1129,7 +1123,7 @@
         <v>24</v>
       </c>
       <c r="N5" s="7">
-        <v>18818</v>
+        <v>18772</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1150,7 +1144,7 @@
         <v>94</v>
       </c>
       <c r="D6" s="7">
-        <v>85403</v>
+        <v>83460</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1165,7 +1159,7 @@
         <v>78</v>
       </c>
       <c r="I6" s="7">
-        <v>51631</v>
+        <v>47183</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1180,7 +1174,7 @@
         <v>172</v>
       </c>
       <c r="N6" s="7">
-        <v>137033</v>
+        <v>130642</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1201,7 +1195,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="7">
-        <v>36491</v>
+        <v>35782</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1216,7 +1210,7 @@
         <v>30</v>
       </c>
       <c r="I7" s="7">
-        <v>22109</v>
+        <v>20519</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1231,7 +1225,7 @@
         <v>65</v>
       </c>
       <c r="N7" s="7">
-        <v>58600</v>
+        <v>56302</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1252,7 +1246,7 @@
         <v>142</v>
       </c>
       <c r="D8" s="7">
-        <v>134198</v>
+        <v>132103</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1267,7 +1261,7 @@
         <v>122</v>
       </c>
       <c r="I8" s="7">
-        <v>89326</v>
+        <v>80609</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1282,7 +1276,7 @@
         <v>264</v>
       </c>
       <c r="N8" s="7">
-        <v>223523</v>
+        <v>212712</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1305,7 +1299,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="7">
-        <v>34327</v>
+        <v>32863</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1320,7 +1314,7 @@
         <v>28</v>
       </c>
       <c r="I9" s="7">
-        <v>20700</v>
+        <v>19106</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1335,7 +1329,7 @@
         <v>61</v>
       </c>
       <c r="N9" s="7">
-        <v>55028</v>
+        <v>51969</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1356,7 +1350,7 @@
         <v>155</v>
       </c>
       <c r="D10" s="7">
-        <v>181628</v>
+        <v>176910</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1371,7 +1365,7 @@
         <v>165</v>
       </c>
       <c r="I10" s="7">
-        <v>129572</v>
+        <v>118857</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1386,7 +1380,7 @@
         <v>320</v>
       </c>
       <c r="N10" s="7">
-        <v>311200</v>
+        <v>295767</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1407,7 +1401,7 @@
         <v>676</v>
       </c>
       <c r="D11" s="7">
-        <v>773669</v>
+        <v>928521</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1422,7 +1416,7 @@
         <v>773</v>
       </c>
       <c r="I11" s="7">
-        <v>568711</v>
+        <v>542355</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1437,7 +1431,7 @@
         <v>1449</v>
       </c>
       <c r="N11" s="7">
-        <v>1342380</v>
+        <v>1470876</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1458,7 +1452,7 @@
         <v>227</v>
       </c>
       <c r="D12" s="7">
-        <v>242856</v>
+        <v>240658</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -1473,7 +1467,7 @@
         <v>295</v>
       </c>
       <c r="I12" s="7">
-        <v>221136</v>
+        <v>262147</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -1488,7 +1482,7 @@
         <v>522</v>
       </c>
       <c r="N12" s="7">
-        <v>463992</v>
+        <v>502806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>85</v>
@@ -1509,7 +1503,7 @@
         <v>1091</v>
       </c>
       <c r="D13" s="7">
-        <v>1232481</v>
+        <v>1378952</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1524,7 +1518,7 @@
         <v>1261</v>
       </c>
       <c r="I13" s="7">
-        <v>940119</v>
+        <v>942465</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1539,7 +1533,7 @@
         <v>2352</v>
       </c>
       <c r="N13" s="7">
-        <v>2172600</v>
+        <v>2321417</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1562,7 +1556,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>11872</v>
+        <v>11455</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
@@ -1577,7 +1571,7 @@
         <v>17</v>
       </c>
       <c r="I14" s="7">
-        <v>12079</v>
+        <v>11163</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>92</v>
@@ -1592,7 +1586,7 @@
         <v>27</v>
       </c>
       <c r="N14" s="7">
-        <v>23952</v>
+        <v>22618</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>89</v>
@@ -1613,7 +1607,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="7">
-        <v>24581</v>
+        <v>23859</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>97</v>
@@ -1628,7 +1622,7 @@
         <v>55</v>
       </c>
       <c r="I15" s="7">
-        <v>45916</v>
+        <v>42093</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>100</v>
@@ -1637,13 +1631,13 @@
         <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>75</v>
       </c>
       <c r="N15" s="7">
-        <v>70497</v>
+        <v>65952</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>102</v>
@@ -1652,7 +1646,7 @@
         <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1664,46 +1658,46 @@
         <v>253</v>
       </c>
       <c r="D16" s="7">
-        <v>261829</v>
+        <v>252850</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>383</v>
       </c>
       <c r="I16" s="7">
-        <v>270364</v>
+        <v>249184</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>636</v>
       </c>
       <c r="N16" s="7">
-        <v>532193</v>
+        <v>502034</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,46 +1709,46 @@
         <v>152</v>
       </c>
       <c r="D17" s="7">
-        <v>165594</v>
+        <v>160277</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>196</v>
       </c>
       <c r="I17" s="7">
-        <v>144541</v>
+        <v>136281</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>348</v>
       </c>
       <c r="N17" s="7">
-        <v>310135</v>
+        <v>296559</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,7 +1760,7 @@
         <v>435</v>
       </c>
       <c r="D18" s="7">
-        <v>463876</v>
+        <v>448441</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1781,7 +1775,7 @@
         <v>651</v>
       </c>
       <c r="I18" s="7">
-        <v>472901</v>
+        <v>438721</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -1796,7 +1790,7 @@
         <v>1086</v>
       </c>
       <c r="N18" s="7">
-        <v>936777</v>
+        <v>887162</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -1819,46 +1813,46 @@
         <v>44</v>
       </c>
       <c r="D19" s="7">
-        <v>47006</v>
+        <v>45073</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
       </c>
       <c r="I19" s="7">
-        <v>41045</v>
+        <v>36509</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>91</v>
       </c>
       <c r="N19" s="7">
-        <v>88051</v>
+        <v>81582</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,46 +1864,46 @@
         <v>187</v>
       </c>
       <c r="D20" s="7">
-        <v>217706</v>
+        <v>212874</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>232</v>
       </c>
       <c r="I20" s="7">
-        <v>182810</v>
+        <v>167616</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>419</v>
       </c>
       <c r="N20" s="7">
-        <v>400516</v>
+        <v>380491</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,46 +1915,46 @@
         <v>1023</v>
       </c>
       <c r="D21" s="7">
-        <v>1120902</v>
+        <v>1264830</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>1234</v>
       </c>
       <c r="I21" s="7">
-        <v>890705</v>
+        <v>838722</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>2257</v>
       </c>
       <c r="N21" s="7">
-        <v>2011607</v>
+        <v>2103552</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,46 +1966,46 @@
         <v>414</v>
       </c>
       <c r="D22" s="7">
-        <v>444940</v>
+        <v>436718</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>521</v>
       </c>
       <c r="I22" s="7">
-        <v>387786</v>
+        <v>418948</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>935</v>
       </c>
       <c r="N22" s="7">
-        <v>832726</v>
+        <v>855666</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,7 +2017,7 @@
         <v>1668</v>
       </c>
       <c r="D23" s="7">
-        <v>1830554</v>
+        <v>1959496</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2038,7 +2032,7 @@
         <v>2034</v>
       </c>
       <c r="I23" s="7">
-        <v>1502346</v>
+        <v>1461795</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2053,7 +2047,7 @@
         <v>3702</v>
       </c>
       <c r="N23" s="7">
-        <v>3332900</v>
+        <v>3421291</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2067,7 +2061,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
